--- a/rhla_analysis/rhla1_3_zipf_result/k3.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06579790325837161</v>
+        <v>0.06579790325837181</v>
       </c>
       <c r="B2" t="n">
         <v>1.79197063224932</v>
@@ -466,12 +466,12 @@
         <v>0.06606990622335891</v>
       </c>
       <c r="D2" t="n">
-        <v>27.23446407118336</v>
+        <v>27.23446407118328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1937243507964614</v>
+        <v>0.1937243507964631</v>
       </c>
       <c r="B3" t="n">
         <v>15.47337782670395</v>
@@ -480,12 +480,12 @@
         <v>0.046462063086104</v>
       </c>
       <c r="D3" t="n">
-        <v>79.87316908322603</v>
+        <v>79.87316908322532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07388748554345297</v>
+        <v>0.07388748554345266</v>
       </c>
       <c r="B4" t="n">
         <v>12.75046549758678</v>
@@ -494,12 +494,12 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="D4" t="n">
-        <v>172.5659684289605</v>
+        <v>172.5659684289612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1638800782726401</v>
+        <v>0.1638800782726392</v>
       </c>
       <c r="B5" t="n">
         <v>9.798934005996474</v>
@@ -508,12 +508,12 @@
         <v>0.06095481670929241</v>
       </c>
       <c r="D5" t="n">
-        <v>59.79332026980371</v>
+        <v>59.79332026980405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09222908880381063</v>
+        <v>0.092229088803811</v>
       </c>
       <c r="B6" t="n">
         <v>4.187397756428098</v>
@@ -522,12 +522,12 @@
         <v>0.06990622335890878</v>
       </c>
       <c r="D6" t="n">
-        <v>45.40213733798796</v>
+        <v>45.40213733798777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4040345804618561</v>
+        <v>0.4040345804618556</v>
       </c>
       <c r="B7" t="n">
         <v>50.37268128695359</v>
@@ -536,12 +536,12 @@
         <v>0.05711849957374254</v>
       </c>
       <c r="D7" t="n">
-        <v>124.674183158709</v>
+        <v>124.6741831587091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2893740433433878</v>
+        <v>0.2893740433433868</v>
       </c>
       <c r="B8" t="n">
         <v>8.906661708509018</v>
@@ -550,7 +550,7 @@
         <v>0.05029838022165388</v>
       </c>
       <c r="D8" t="n">
-        <v>30.77906230152047</v>
+        <v>30.77906230152057</v>
       </c>
     </row>
     <row r="9">
@@ -564,12 +564,12 @@
         <v>0.05456095481670929</v>
       </c>
       <c r="D9" t="n">
-        <v>33.03918888077398</v>
+        <v>33.03918888077399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.09289712076917378</v>
+        <v>0.09289712076917422</v>
       </c>
       <c r="B10" t="n">
         <v>4.248387957486347</v>
@@ -578,12 +578,12 @@
         <v>0.04262574595055414</v>
       </c>
       <c r="D10" t="n">
-        <v>45.73218117321993</v>
+        <v>45.73218117321971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3272182178670303</v>
+        <v>0.3272182178670286</v>
       </c>
       <c r="B11" t="n">
         <v>6.61409212472214</v>
@@ -592,7 +592,7 @@
         <v>0.05626598465473145</v>
       </c>
       <c r="D11" t="n">
-        <v>20.21309255895364</v>
+        <v>20.21309255895374</v>
       </c>
     </row>
   </sheetData>
